--- a/WTM/coefficients.xlsx
+++ b/WTM/coefficients.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcamp\Documents\GitHub\TDEC_BacteriaModeling\WTM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3891E4DD-2FA5-4977-A18D-F14A2E54D7A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DC29264-A28E-4F9B-A7DB-67FD12BA97CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FE2525ED-BCEF-475D-ACEF-28FCBCDC7B01}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="coefs" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -835,16 +834,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3963B27B-1E73-48DF-9DBB-24CB39A76B01}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>